--- a/day-9/k-means-working.xlsx
+++ b/day-9/k-means-working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\AI-Fundamentals\ML-Primer\code\09_KMEANS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gridflowAI\cgi-AI-ML-GenAI\day-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64DD20AE-247D-4C88-B461-3FD85A188A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2FB09-C084-49D3-BFA4-730C97B9A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="585" windowWidth="22665" windowHeight="14895" xr2:uid="{FB488C66-1CE5-4D48-A922-3E81B5050E70}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{FB488C66-1CE5-4D48-A922-3E81B5050E70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,12 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -246,6 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,9 +1221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1259,7 +1261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1365,7 +1367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1507,7 +1509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B89673A-C576-4B32-A21C-4B7DEF4F6A33}">
-  <dimension ref="A3:J54"/>
+  <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,91 +1528,92 @@
     <col min="6" max="6" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1626,11 +1629,11 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1653,16 +1656,16 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="14">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21" s="12">
         <v>1</v>
       </c>
-      <c r="I21" s="15">
+      <c r="H21" s="13">
+        <v>11</v>
+      </c>
+      <c r="I21" s="13">
         <v>3</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1681,72 +1684,76 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>11</v>
       </c>
       <c r="C25">
         <f xml:space="preserve"> SQRT((A25-$G$21)^2 + (B25-$H$21)^2)</f>
-        <v>10.770329614269007</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f xml:space="preserve"> SQRT((A25-$I$21)^2 + (B25-$J$21)^2)</f>
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f xml:space="preserve"> SQRT((5-1)^2 + (1-11)^2)</f>
+        <v>10.770329614269007</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11">
-        <v>4</v>
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>11</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C34" si="0" xml:space="preserve"> SQRT((A26-$G$21)^2 + (B26-$H$21)^2)</f>
-        <v>4.2426406871192848</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:D34" si="1" xml:space="preserve"> SQRT((A26-$I$21)^2 + (B26-$J$21)^2)</f>
-        <v>7.0710678118654755</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>7</v>
-      </c>
-      <c r="B27" s="11">
-        <v>9</v>
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>11</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>8.2462112512353212</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>4.4721359549995796</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.770329614269007</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -1757,15 +1764,15 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>8</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>2</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>3.1622776601683795</v>
+        <v>11.401754250991379</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -1776,15 +1783,15 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="8">
         <v>15</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>2</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>10.04987562112089</v>
+        <v>16.643316977093239</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1795,15 +1802,15 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>2</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>16</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>15.297058540778355</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -1814,15 +1821,15 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <v>3</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>11</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>10.198039027185569</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -1833,15 +1840,15 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>11</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>6</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>7.810249675906654</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -1852,15 +1859,15 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>5</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>5</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7.2111025509279782</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -1874,98 +1881,98 @@
       <c r="F35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>2</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>4</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>1</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <v>5</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <v>7</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>8</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="9">
         <v>2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>15</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="9">
         <v>2</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <v>3</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>11</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <v>6</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>5</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>5</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="12">
         <f>AVERAGE(G35:G40)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="14">
         <f>AVERAGE(H35:H40)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="13">
         <f>AVERAGE(I35:I40)</f>
         <v>3.25</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <f>AVERAGE(J35:J40)</f>
         <v>11.75</v>
       </c>
@@ -1985,10 +1992,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>1</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>11</v>
       </c>
       <c r="C45">
@@ -2004,10 +2011,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46" s="8">
         <v>2</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>4</v>
       </c>
       <c r="C46">
@@ -2023,10 +2030,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="8">
         <v>7</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>9</v>
       </c>
       <c r="C47">
@@ -2042,10 +2049,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A48" s="8">
         <v>5</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>1</v>
       </c>
       <c r="C48">
@@ -2060,11 +2067,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
         <v>8</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>2</v>
       </c>
       <c r="C49">
@@ -2079,11 +2086,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>15</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>2</v>
       </c>
       <c r="C50">
@@ -2098,11 +2105,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>2</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>16</v>
       </c>
       <c r="C51">
@@ -2117,11 +2124,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
         <v>3</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>11</v>
       </c>
       <c r="C52">
@@ -2136,11 +2143,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>11</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>6</v>
       </c>
       <c r="C53">
@@ -2154,12 +2161,16 @@
       <c r="E53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
+      <c r="G53" s="12"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
         <v>5</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="11">
         <v>5</v>
       </c>
       <c r="C54">
